--- a/database/classified_reaction_types/ketone_alcohol/ketone_alcohol_train.xlsx
+++ b/database/classified_reaction_types/ketone_alcohol/ketone_alcohol_train.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="194">
   <si>
     <t>Reactants</t>
   </si>
@@ -487,6 +487,120 @@
   </si>
   <si>
     <t>OC1CCCc2ncccc21</t>
+  </si>
+  <si>
+    <t>COc1ccc2c(c1)CCCC2=O</t>
+  </si>
+  <si>
+    <t>COc1ccc2c(c1)CCCC2O</t>
+  </si>
+  <si>
+    <t>N#CCC(=O)c1cccs1</t>
+  </si>
+  <si>
+    <t>N#CCC(O)c1cccs1</t>
+  </si>
+  <si>
+    <t>CCCCC/C=C/C(C)=O</t>
+  </si>
+  <si>
+    <t>CCCCC/C=C/C(C)O</t>
+  </si>
+  <si>
+    <t>CSc1ccsc1C=O</t>
+  </si>
+  <si>
+    <t>CSc1ccsc1CO</t>
+  </si>
+  <si>
+    <t>CSc1ccc(C=O)cc1C</t>
+  </si>
+  <si>
+    <t>CSc1ccc(CO)cc1C</t>
+  </si>
+  <si>
+    <t>COc1cccc(CC(C)=O)c1</t>
+  </si>
+  <si>
+    <t>COc1cccc(CC(C)O)c1</t>
+  </si>
+  <si>
+    <t>N#Cc1ccc(C=O)cc1</t>
+  </si>
+  <si>
+    <t>N#Cc1ccc(CO)cc1</t>
+  </si>
+  <si>
+    <t>CC1CCCc2ccccc2C1=O</t>
+  </si>
+  <si>
+    <t>CC1CCCc2ccccc2C1O</t>
+  </si>
+  <si>
+    <t>Cc1cccc2c1CCC2=O</t>
+  </si>
+  <si>
+    <t>Cc1cccc2c1CCC2O</t>
+  </si>
+  <si>
+    <t>O=c1ccn2c(c1)C=CC2</t>
+  </si>
+  <si>
+    <t>Oc1ccn2cccc2c1</t>
+  </si>
+  <si>
+    <t>Cc1cccc(C(C)C)c1C=O</t>
+  </si>
+  <si>
+    <t>Cc1cccc(C(C)C)c1CO</t>
+  </si>
+  <si>
+    <t>O=Cc1cncc2ccccc12</t>
+  </si>
+  <si>
+    <t>OCc1cncc2ccccc12</t>
+  </si>
+  <si>
+    <t>CCOC(=O)C(C)C(C)=O</t>
+  </si>
+  <si>
+    <t>CCOC(=O)C(C)C(C)O</t>
+  </si>
+  <si>
+    <t>CC(=O)CCCC1CCCC1</t>
+  </si>
+  <si>
+    <t>CC(O)CCCC1CCCC1</t>
+  </si>
+  <si>
+    <t>Cc1ncc(C=CC=O)cn1</t>
+  </si>
+  <si>
+    <t>Cc1ncc(C=CCO)cn1</t>
+  </si>
+  <si>
+    <t>CCC(C=O)(CO)CO</t>
+  </si>
+  <si>
+    <t>CCC(CO)(CO)CO</t>
+  </si>
+  <si>
+    <t>CCCCCCC(=O)CC</t>
+  </si>
+  <si>
+    <t>CCCCCCC(O)CC</t>
+  </si>
+  <si>
+    <t>O=C1CCc2ccccc21</t>
+  </si>
+  <si>
+    <t>OC1CCc2ccccc21</t>
+  </si>
+  <si>
+    <t>CC(C)Cc1ccc(C=O)cc1</t>
+  </si>
+  <si>
+    <t>CC(C)Cc1ccc(CO)cc1</t>
   </si>
 </sst>
 </file>
@@ -817,10 +931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1262,271 +1376,419 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
+      <c r="A54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>143</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/database/classified_reaction_types/ketone_alcohol/ketone_alcohol_train.xlsx
+++ b/database/classified_reaction_types/ketone_alcohol/ketone_alcohol_train.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -964,7 +964,7 @@
   <dimension ref="A1:D107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
